--- a/Python/pearce.xlsx
+++ b/Python/pearce.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoCode/DataFileSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/GeoPython/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="2260" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="2040" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>DataType</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -179,26 +179,63 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>---</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>zk0009-b10</t>
+  </si>
+  <si>
+    <t>zk0009-b4</t>
+  </si>
+  <si>
+    <t>zk0009-b8</t>
+  </si>
+  <si>
+    <t>zk0801-b2</t>
+  </si>
+  <si>
+    <t>zk0802-b6</t>
+  </si>
+  <si>
+    <t>zk1101-b2</t>
+  </si>
+  <si>
+    <t>zk1102-b1</t>
+  </si>
+  <si>
+    <t>zk1103-b2</t>
+  </si>
+  <si>
+    <t>zk1104-b4</t>
+  </si>
+  <si>
+    <t>zk1501-b11</t>
+  </si>
+  <si>
+    <t>zk1502-b25</t>
+  </si>
+  <si>
+    <t>Freddy Yu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +287,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="2"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="54"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFDD0806"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666699"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,7 +371,42 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,19 +753,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6">
         <v>50</v>
@@ -658,26 +773,26 @@
       <c r="H2" s="6">
         <v>0.5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
       </c>
       <c r="K2" s="7">
-        <v>2.3199999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="L2" s="7">
-        <v>0.246</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="M2" s="7">
-        <v>1.4E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="N2" s="7">
-        <v>1.57</v>
+        <v>4.55</v>
       </c>
       <c r="O2" s="7">
-        <v>0.17</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -685,19 +800,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G3" s="6">
         <v>50</v>
@@ -705,26 +820,26 @@
       <c r="H3" s="6">
         <v>0.5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
       </c>
       <c r="K3" s="7">
-        <v>0.63500000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L3" s="7">
-        <v>0.71299999999999997</v>
+        <v>2.33</v>
       </c>
       <c r="M3" s="7">
-        <v>4.1000000000000002E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="N3" s="7">
-        <v>4.55</v>
+        <v>28</v>
       </c>
       <c r="O3" s="7">
-        <v>0.49299999999999999</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -732,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6">
         <v>50</v>
@@ -752,26 +867,26 @@
       <c r="H4" s="6">
         <v>0.5</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>21</v>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="7">
-        <v>0.56000000000000005</v>
+        <v>5.04</v>
       </c>
       <c r="L4" s="7">
-        <v>2.33</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M4" s="7">
-        <v>0.13200000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="N4" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O4" s="7">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -779,19 +894,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6">
         <v>50</v>
@@ -799,87 +914,87 @@
       <c r="H5" s="6">
         <v>0.5</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" s="7">
-        <v>5.04</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7">
-        <v>8.3000000000000007</v>
+        <v>48</v>
       </c>
       <c r="M5" s="7">
-        <v>0.47</v>
+        <v>2.7</v>
       </c>
       <c r="N5" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O5" s="7">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="6">
-        <v>50</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9">
         <v>0.5</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7">
-        <v>48</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="N6" s="7">
-        <v>29</v>
-      </c>
-      <c r="O6" s="7">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.246</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
@@ -899,237 +1014,490 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="7">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.246</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1.57</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="K7" s="16">
+        <v>111</v>
+      </c>
+      <c r="L7" s="19">
+        <v>14.7</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1.64</v>
+      </c>
+      <c r="N7" s="19">
+        <v>15.4</v>
+      </c>
+      <c r="O7" s="13">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>128</v>
+      </c>
+      <c r="L8" s="20">
+        <v>13.5</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="N8" s="20">
+        <v>14</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>249</v>
+      </c>
+      <c r="L9" s="20">
+        <v>13.5</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1.51</v>
+      </c>
+      <c r="N9" s="20">
+        <v>14.5</v>
+      </c>
+      <c r="O9" s="14">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>58</v>
+      </c>
+      <c r="L10" s="19">
+        <v>13</v>
+      </c>
+      <c r="M10" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="N10" s="19">
+        <v>13.7</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>95</v>
+      </c>
+      <c r="L11" s="20">
+        <v>12.8</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="N11" s="20">
+        <v>14.2</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>97</v>
+      </c>
+      <c r="L12" s="20">
+        <v>12.7</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12" s="20">
+        <v>14.3</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>78</v>
+      </c>
+      <c r="L13" s="21">
+        <v>12</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13" s="21">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>50</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>102</v>
+      </c>
+      <c r="L14" s="20">
+        <v>11.6</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N14" s="20">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>50</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="O14" s="14">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6">
+        <v>50</v>
+      </c>
+      <c r="H15" s="6">
         <v>0.5</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.246</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>97</v>
+      </c>
+      <c r="L15" s="20">
+        <v>11.3</v>
+      </c>
+      <c r="M15" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="N15" s="20">
+        <v>16</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
+      <c r="G16" s="6">
+        <v>50</v>
+      </c>
+      <c r="H16" s="6">
         <v>0.5</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="L9">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="M9">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N9">
-        <v>4.55</v>
-      </c>
-      <c r="O9">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10">
+      <c r="I16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>93</v>
+      </c>
+      <c r="L16" s="20">
+        <v>12.2</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="N16" s="20">
+        <v>16.7</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="6">
+        <v>50</v>
+      </c>
+      <c r="H17" s="6">
         <v>0.5</v>
       </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L10">
-        <v>2.33</v>
-      </c>
-      <c r="M10">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="N10">
-        <v>28</v>
-      </c>
-      <c r="O10">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5.04</v>
-      </c>
-      <c r="L11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M11">
-        <v>0.47</v>
-      </c>
-      <c r="N11">
-        <v>22</v>
-      </c>
-      <c r="O11">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>31</v>
-      </c>
-      <c r="L12">
-        <v>48</v>
-      </c>
-      <c r="M12">
-        <v>2.7</v>
-      </c>
-      <c r="N12">
-        <v>29</v>
-      </c>
-      <c r="O12">
-        <v>2.16</v>
+      <c r="I17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>111</v>
+      </c>
+      <c r="L17" s="20">
+        <v>12.8</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N17" s="20">
+        <v>14.6</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>
